--- a/public/海南老干部管理系统人员信息导入模板.xlsx
+++ b/public/海南老干部管理系统人员信息导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23DD5DE-B9D6-4DDF-BC26-D81B916B8C76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79DFA4A-0CB0-4435-AB1D-393E18BB8417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -642,7 +642,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -876,7 +876,7 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"博士,硕士,大学本科,大专,中专和中技,技工学校,高中,初中,小学,文盲与半文盲,其他"</formula1>
     </dataValidation>
@@ -895,6 +895,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{20C44672-F4D7-4C80-9914-B07FDBA2B2C3}">
       <formula1>"公务员,参公,事业,工勤,国企管理人员,国企工人,外聘"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{E228C457-7819-4022-9656-67111560374E}">
+      <formula1>"汉族,蒙古族,满族,朝鲜族,赫哲族,达斡尔族,鄂温克族,鄂伦春族,回族,东乡族,土族,撒拉族,保安族,裕固族,维吾尔族,哈萨克族,柯尔克孜族,锡伯族,塔吉克族,乌孜别克族,俄罗斯族,塔塔尔族,藏族,门巴族,珞巴族,羌族,彝族,白族,哈尼族,傣族,僳僳族,佤族,拉祜族,纳西族,景颇族,布朗族,阿昌族,普米族,怒族,德昂族,独龙族,基诺族,苗族,布依族,侗族,水族,仡佬族,壮族,瑶族,仫佬族,毛南族,京族,土家族,黎族,畲族,高山族"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.29861111111111099" footer="0.29861111111111099"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
